--- a/Day4/Reklaam_andmestik.xlsx
+++ b/Day4/Reklaam_andmestik.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virve\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsk-my.sharepoint.com/personal/virve_rani_bcs_ee/Documents/Documents/Andmetarkus/Day4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B836ACD-497B-4F7E-ADF4-A0333A2CB7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{5B836ACD-497B-4F7E-ADF4-A0333A2CB7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32AD8A68-934E-4A05-98A2-06C847C56167}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9DD1BB8C-EF49-46BC-94FB-2738EF2595BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$69</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$69</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$69</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -420,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70F7B04-6547-441D-9314-F15E75DB4BDC}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
